--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="480" windowWidth="24760" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="740" windowWidth="24760" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -71,10 +74,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -219,85 +224,85 @@
             <c:numRef>
               <c:f>工作表1!$B$1:$B$26</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,85 +419,85 @@
             <c:numRef>
               <c:f>工作表1!$D$1:$D$26</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,11 +513,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2133330496"/>
-        <c:axId val="-2133133104"/>
+        <c:axId val="2127435328"/>
+        <c:axId val="2127442048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133330496"/>
+        <c:axId val="2127435328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,9 +541,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>训练次数</a:t>
+                  <a:t>训练</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -569,7 +581,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -600,17 +612,20 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133133104"/>
+        <c:crossAx val="2127442048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133133104"/>
+        <c:axId val="2127442048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -643,6 +658,10 @@
                   <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>准确率</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/%</a:t>
+                </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
@@ -674,7 +693,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -704,20 +723,22 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133330496"/>
+        <c:crossAx val="2127435328"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -786,7 +807,550 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.155275371828521"/>
+          <c:y val="0.23037037037037"/>
+          <c:w val="0.792391294838145"/>
+          <c:h val="0.517809128025664"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$1:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$1:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.181</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2102013504"/>
+        <c:axId val="-2108985728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2102013504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>训练数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2108985728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2108985728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>交叉熵</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2102013504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1342,20 +1906,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1369,6 +2449,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1640,381 +2750,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.45</v>
+        <v>45</v>
       </c>
       <c r="C1">
         <v>1.65</v>
       </c>
-      <c r="D1" s="1">
-        <v>0.23</v>
+      <c r="D1" s="3">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2" s="1">
-        <v>0.67</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>2.15</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.69</v>
+      <c r="D2" s="3">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>40</v>
       </c>
       <c r="B3" s="2">
-        <v>0.81</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0.51</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.85</v>
+      <c r="D3" s="3">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>60</v>
       </c>
       <c r="B4" s="2">
-        <v>0.95</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>0.41</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.89</v>
+      <c r="D4" s="4">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4">
+        <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>80</v>
       </c>
       <c r="B5" s="2">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>0.33</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.85</v>
+      <c r="D5" s="4">
+        <v>85</v>
+      </c>
+      <c r="E5" s="4">
+        <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6" s="2">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.82</v>
+      <c r="D6" s="4">
+        <v>82</v>
+      </c>
+      <c r="E6" s="4">
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>120</v>
       </c>
       <c r="B7" s="2">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>0.38</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.86</v>
+      <c r="D7" s="4">
+        <v>86</v>
+      </c>
+      <c r="E7" s="4">
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>140</v>
       </c>
       <c r="B8" s="2">
-        <v>0.89</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.81</v>
+      <c r="D8" s="4">
+        <v>81</v>
+      </c>
+      <c r="E8" s="4">
+        <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>160</v>
       </c>
       <c r="B9" s="2">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>0.18</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.86</v>
+      <c r="D9" s="4">
+        <v>86</v>
+      </c>
+      <c r="E9" s="4">
+        <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>180</v>
       </c>
       <c r="B10" s="2">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0.17</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.77</v>
+      <c r="D10" s="4">
+        <v>77</v>
+      </c>
+      <c r="E10" s="4">
+        <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200</v>
       </c>
       <c r="B11" s="2">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>0.27</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.86</v>
+      <c r="D11" s="4">
+        <v>86</v>
+      </c>
+      <c r="E11" s="4">
+        <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>220</v>
       </c>
       <c r="B12" s="2">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>0.21</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.79</v>
+      <c r="D12" s="4">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4">
+        <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>240</v>
       </c>
       <c r="B13" s="2">
-        <v>0.95</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>0.19</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.81</v>
+      <c r="D13" s="4">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4">
+        <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>260</v>
       </c>
       <c r="B14" s="2">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D14" s="2">
-        <v>0.91</v>
+      <c r="D14" s="4">
+        <v>91</v>
+      </c>
+      <c r="E14" s="4">
+        <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>280</v>
       </c>
       <c r="B15" s="2">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>0.17</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.87</v>
+      <c r="D15" s="4">
+        <v>87</v>
+      </c>
+      <c r="E15" s="4">
+        <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>300</v>
       </c>
       <c r="B16" s="2">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>0.21</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.9</v>
+      <c r="D16" s="4">
+        <v>90</v>
+      </c>
+      <c r="E16" s="4">
+        <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>320</v>
       </c>
       <c r="B17" s="2">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>0.16</v>
       </c>
-      <c r="D17" s="2">
-        <v>0.88</v>
+      <c r="D17" s="4">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4">
+        <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>340</v>
       </c>
       <c r="B18" s="2">
-        <v>0.95</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>0.15</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.89</v>
+      <c r="D18" s="4">
+        <v>89</v>
+      </c>
+      <c r="E18" s="4">
+        <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>360</v>
       </c>
       <c r="B19" s="2">
-        <v>0.91</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>0.27</v>
       </c>
-      <c r="D19" s="2">
-        <v>0.88</v>
+      <c r="D19" s="4">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4">
+        <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>380</v>
       </c>
       <c r="B20" s="2">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>0.1</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.83</v>
+      <c r="D20" s="4">
+        <v>83</v>
+      </c>
+      <c r="E20" s="4">
+        <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>400</v>
       </c>
       <c r="B21" s="2">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="C21">
         <v>0.15</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.9</v>
+      <c r="D21" s="4">
+        <v>90</v>
+      </c>
+      <c r="E21" s="4">
+        <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>420</v>
       </c>
       <c r="B22" s="2">
-        <v>0.99</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>0.08</v>
       </c>
-      <c r="D22" s="2">
-        <v>0.88</v>
+      <c r="D22" s="4">
+        <v>88</v>
+      </c>
+      <c r="E22" s="4">
+        <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>440</v>
       </c>
       <c r="B23" s="2">
-        <v>0.98</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>0.121</v>
       </c>
-      <c r="D23" s="2">
-        <v>0.92</v>
+      <c r="D23" s="4">
+        <v>92</v>
+      </c>
+      <c r="E23" s="4">
+        <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>460</v>
       </c>
       <c r="B24" s="2">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>0.18099999999999999</v>
       </c>
-      <c r="D24" s="2">
-        <v>0.88</v>
+      <c r="D24" s="4">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4">
+        <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>480</v>
       </c>
       <c r="B25" s="2">
-        <v>0.97</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>0.106</v>
       </c>
-      <c r="D25" s="2">
-        <v>0.89</v>
+      <c r="D25" s="4">
+        <v>89</v>
+      </c>
+      <c r="E25" s="4">
+        <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>500</v>
       </c>
       <c r="B26" s="2">
-        <v>0.98</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>0.09</v>
       </c>
-      <c r="D26" s="2">
-        <v>0.84</v>
+      <c r="D26" s="4">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>